--- a/Bog/ExcelTool4.xlsx
+++ b/Bog/ExcelTool4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\sap-cpu\Bog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-undervisning\devcronberg\sap-cpu\Bog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBB791A-469C-4E53-A178-AD7C54A0255A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F77E8D8-2B88-4CBA-8BE3-26F985BEFC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MicroCode" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>AI</t>
   </si>
@@ -88,36 +88,15 @@
     <t>8800</t>
   </si>
   <si>
-    <t>IO+MI</t>
-  </si>
-  <si>
     <t>0104</t>
   </si>
   <si>
-    <t>RO+AI</t>
-  </si>
-  <si>
-    <t>RO+BI</t>
-  </si>
-  <si>
-    <t>EO+AI</t>
-  </si>
-  <si>
-    <t>HL</t>
-  </si>
-  <si>
     <t>HLT</t>
   </si>
   <si>
-    <t>Halt</t>
-  </si>
-  <si>
     <t>0002</t>
   </si>
   <si>
-    <t>AO+OI</t>
-  </si>
-  <si>
     <t>RI</t>
   </si>
   <si>
@@ -130,15 +109,6 @@
     <t>LIA</t>
   </si>
   <si>
-    <t>Literal til A</t>
-  </si>
-  <si>
-    <t>IO+AI</t>
-  </si>
-  <si>
-    <t>AO+RI</t>
-  </si>
-  <si>
     <t>4001</t>
   </si>
   <si>
@@ -151,27 +121,18 @@
     <t>Jump til adresse</t>
   </si>
   <si>
-    <t>IO+PI</t>
-  </si>
-  <si>
     <t>0024</t>
   </si>
   <si>
     <t>0044</t>
   </si>
   <si>
-    <t>IO+PE+PI</t>
-  </si>
-  <si>
     <t>MOVAB</t>
   </si>
   <si>
     <t>Kopi A til B</t>
   </si>
   <si>
-    <t>AO+BI</t>
-  </si>
-  <si>
     <t>6000</t>
   </si>
   <si>
@@ -206,6 +167,84 @@
   </si>
   <si>
     <t>IU</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>IU MI</t>
+  </si>
+  <si>
+    <t>RU AI</t>
+  </si>
+  <si>
+    <t>ADDA</t>
+  </si>
+  <si>
+    <t>KOA</t>
+  </si>
+  <si>
+    <t>Konstant til A</t>
+  </si>
+  <si>
+    <t>Instruktion</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Beskrivelse</t>
+  </si>
+  <si>
+    <t>Opkode 1</t>
+  </si>
+  <si>
+    <t>Opkode 2</t>
+  </si>
+  <si>
+    <t>Opkode 3</t>
+  </si>
+  <si>
+    <t>IO AI</t>
+  </si>
+  <si>
+    <t>IO PI</t>
+  </si>
+  <si>
+    <t>IO PE PI</t>
+  </si>
+  <si>
+    <t>AO BI</t>
+  </si>
+  <si>
+    <t>UO MI</t>
+  </si>
+  <si>
+    <t>RU BI</t>
+  </si>
+  <si>
+    <t>EU AI</t>
+  </si>
+  <si>
+    <t>AU OI</t>
+  </si>
+  <si>
+    <t>AU RI</t>
   </si>
 </sst>
 </file>
@@ -564,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -601,17 +640,29 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
@@ -691,9 +742,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -701,237 +754,258 @@
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="str">
-        <f>BIN2HEX(C1)</f>
+      <c r="B2" t="str">
+        <f>BIN2HEX(C2)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B8" si="0">BIN2HEX(C2)</f>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B9" si="0">BIN2HEX(C3)</f>
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>DEC2BIN(BIN2DEC(C1)+1,4)</f>
+      <c r="C3" s="5" t="str">
+        <f>DEC2BIN(BIN2DEC(C2)+1,4)</f>
         <v>0010</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C6" si="1">DEC2BIN(BIN2DEC(C2)+1,4)</f>
+      <c r="C4" s="5" t="str">
+        <f t="shared" ref="C4:C7" si="1">DEC2BIN(BIN2DEC(C3)+1,4)</f>
         <v>0011</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="str">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0100</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="str">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0101</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="str">
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0110</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="str">
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" ref="C7" si="2">DEC2BIN(BIN2DEC(C6)+1,4)</f>
+      <c r="C8" s="5" t="str">
+        <f t="shared" ref="C8" si="2">DEC2BIN(BIN2DEC(C7)+1,4)</f>
         <v>0111</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="str">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" ref="C8:C9" si="3">DEC2BIN(BIN2DEC(C7)+1,4)</f>
+      <c r="C9" s="5" t="str">
+        <f t="shared" ref="C9:C10" si="3">DEC2BIN(BIN2DEC(C8)+1,4)</f>
         <v>1000</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" ref="B9" si="4">BIN2HEX(C9)</f>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ref="B10" si="4">BIN2HEX(C10)</f>
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C10" s="5" t="str">
         <f t="shared" si="3"/>
         <v>1001</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>50</v>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -956,25 +1030,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="str">
-        <f>CONCATENATE(VLOOKUP(A1,Instruktioner!$A$1:$B$10,2, ),B1)</f>
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="C1" t="e">
+        <f>CONCATENATE(VLOOKUP(A1,Instruktioner!$A$2:$B$11,2, ),B1)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE(VLOOKUP(A2,Instruktioner!$A$1:$B$10,2, ),B2)</f>
+        <f>CONCATENATE(VLOOKUP(A2,Instruktioner!$A$2:$B$11,2, ),B2)</f>
         <v>5F</v>
       </c>
     </row>
@@ -983,11 +1057,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="str">
-        <f>CONCATENATE(VLOOKUP(A3,Instruktioner!$A$1:$B$10,2, ),B3)</f>
-        <v>2F</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="e">
+        <f>CONCATENATE(VLOOKUP(A3,Instruktioner!$A$2:$B$11,2, ),B3)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,70 +1069,70 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(VLOOKUP(A4,Instruktioner!$A$1:$B$10,2, ),B4)</f>
+        <f>CONCATENATE(VLOOKUP(A4,Instruktioner!$A$2:$B$11,2, ),B4)</f>
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE(VLOOKUP(A5,Instruktioner!$A$1:$B$10,2, ),B5)</f>
+        <f>CONCATENATE(VLOOKUP(A5,Instruktioner!$A$2:$B$11,2, ),B5)</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE(VLOOKUP(A6,Instruktioner!$A$1:$B$10,2, ),B6)</f>
+        <f>CONCATENATE(VLOOKUP(A6,Instruktioner!$A$2:$B$11,2, ),B6)</f>
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(VLOOKUP(A7,Instruktioner!$A$1:$B$10,2, ),B7)</f>
+        <f>CONCATENATE(VLOOKUP(A7,Instruktioner!$A$2:$B$11,2, ),B7)</f>
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(VLOOKUP(A8,Instruktioner!$A$1:$B$10,2, ),B8)</f>
+        <f>CONCATENATE(VLOOKUP(A8,Instruktioner!$A$2:$B$11,2, ),B8)</f>
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE(VLOOKUP(A9,Instruktioner!$A$1:$B$10,2, ),B9)</f>
+        <f>CONCATENATE(VLOOKUP(A9,Instruktioner!$A$2:$B$11,2, ),B9)</f>
         <v>90</v>
       </c>
     </row>
